--- a/MTH_9821/HW2/hw2_9821_team4.xlsx
+++ b/MTH_9821/HW2/hw2_9821_team4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tian/Library/Mobile Documents/iCloud~md~obsidian/Documents/Baruch/第一学期/numerical/Baruch-Numerical-Projects/MTH_9821/HW2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0DFE6CA-49E1-6A4A-90CE-3E40015DC177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB11FC38-6797-A14E-A55C-AC065DB2EE9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="500" windowWidth="23040" windowHeight="24380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15360" yWindow="500" windowWidth="23040" windowHeight="19400" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problem 1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>Antithetic Variables</t>
   </si>
@@ -72,18 +72,12 @@
     <t>N</t>
   </si>
   <si>
-    <t>V^(N)</t>
-  </si>
-  <si>
     <t>Comment</t>
   </si>
   <si>
     <t>Monte Carlo Pricing for Path-Dependent Basket Options</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
     <t>V^(n)</t>
   </si>
   <si>
@@ -97,6 +91,30 @@
   </si>
   <si>
     <t>Variance Reduction Techniques for Monte Carlo Pricing of European Options</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>StdDev of V</t>
+  </si>
+  <si>
+    <t>StdError</t>
+  </si>
+  <si>
+    <t>95% CI Lower</t>
+  </si>
+  <si>
+    <t>95% CI Upper</t>
+  </si>
+  <si>
+    <t>The price settles around 6.65 and the convergence rate for that is close to N^-1/2</t>
+  </si>
+  <si>
+    <t>n_paths</t>
+  </si>
+  <si>
+    <t>The price settles around 11.62-11.65 and the convergence rate for that is close to N^-1/2</t>
   </si>
 </sst>
 </file>
@@ -195,6 +213,138 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>809625</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>105896</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B3FB49-FA4C-AF97-0A8E-F6AD57FD0CF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1031875" y="3587749"/>
+          <a:ext cx="8032750" cy="6138397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88635DBF-F634-2884-4C40-DFD859E4912A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1028700" y="3670300"/>
+          <a:ext cx="7429500" cy="5829300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -496,8 +646,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -514,7 +664,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -726,7 +876,7 @@
     </row>
     <row r="19" spans="1:7" ht="28.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7" t="s">
@@ -1007,7 +1157,7 @@
   <dimension ref="A1:Z16"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1104,11 +1254,23 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -1127,10 +1289,24 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+      <c r="A5">
         <v>10000</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5">
+        <v>6.6356900000000003</v>
+      </c>
+      <c r="C5">
+        <v>6.8416969999999999</v>
+      </c>
+      <c r="D5">
+        <v>6.8417000000000006E-2</v>
+      </c>
+      <c r="E5">
+        <v>6.5015929999999997</v>
+      </c>
+      <c r="F5">
+        <v>6.769787</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1148,10 +1324,24 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+      <c r="A6">
         <v>20000</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6">
+        <v>6.692202</v>
+      </c>
+      <c r="C6">
+        <v>6.966145</v>
+      </c>
+      <c r="D6">
+        <v>4.9258000000000003E-2</v>
+      </c>
+      <c r="E6">
+        <v>6.5956570000000001</v>
+      </c>
+      <c r="F6">
+        <v>6.788748</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -1169,10 +1359,24 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="A7">
         <v>40000</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7">
+        <v>6.6126950000000004</v>
+      </c>
+      <c r="C7">
+        <v>6.8451430000000002</v>
+      </c>
+      <c r="D7">
+        <v>3.4225999999999999E-2</v>
+      </c>
+      <c r="E7">
+        <v>6.5456120000000002</v>
+      </c>
+      <c r="F7">
+        <v>6.6797769999999996</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -1190,10 +1394,24 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
+      <c r="A8">
         <v>80000</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8">
+        <v>6.6831649999999998</v>
+      </c>
+      <c r="C8">
+        <v>6.9066330000000002</v>
+      </c>
+      <c r="D8">
+        <v>2.4419E-2</v>
+      </c>
+      <c r="E8">
+        <v>6.6353039999999996</v>
+      </c>
+      <c r="F8">
+        <v>6.731026</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -1211,10 +1429,24 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
+      <c r="A9">
         <v>160000</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9">
+        <v>6.6557029999999999</v>
+      </c>
+      <c r="C9">
+        <v>6.8893170000000001</v>
+      </c>
+      <c r="D9">
+        <v>1.7222999999999999E-2</v>
+      </c>
+      <c r="E9">
+        <v>6.6219460000000003</v>
+      </c>
+      <c r="F9">
+        <v>6.6894609999999997</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -1232,10 +1464,24 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+      <c r="A10">
         <v>320000</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10">
+        <v>6.6485799999999999</v>
+      </c>
+      <c r="C10">
+        <v>6.8815189999999999</v>
+      </c>
+      <c r="D10">
+        <v>1.2165E-2</v>
+      </c>
+      <c r="E10">
+        <v>6.6247369999999997</v>
+      </c>
+      <c r="F10">
+        <v>6.6724240000000004</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -1253,10 +1499,24 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
+      <c r="A11">
         <v>640000</v>
       </c>
-      <c r="B11" s="6"/>
+      <c r="B11">
+        <v>6.6479059999999999</v>
+      </c>
+      <c r="C11">
+        <v>6.8841109999999999</v>
+      </c>
+      <c r="D11">
+        <v>8.6049999999999998E-3</v>
+      </c>
+      <c r="E11">
+        <v>6.6310399999999996</v>
+      </c>
+      <c r="F11">
+        <v>6.6647730000000003</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -1274,10 +1534,24 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
+      <c r="A12">
         <v>1280000</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12">
+        <v>6.653912</v>
+      </c>
+      <c r="C12">
+        <v>6.8865179999999997</v>
+      </c>
+      <c r="D12">
+        <v>6.0870000000000004E-3</v>
+      </c>
+      <c r="E12">
+        <v>6.6419819999999996</v>
+      </c>
+      <c r="F12">
+        <v>6.6658419999999996</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -1295,10 +1569,24 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+      <c r="A13">
         <v>2560000</v>
       </c>
-      <c r="B13" s="6"/>
+      <c r="B13">
+        <v>6.6526249999999996</v>
+      </c>
+      <c r="C13">
+        <v>6.8865629999999998</v>
+      </c>
+      <c r="D13">
+        <v>4.3039999999999997E-3</v>
+      </c>
+      <c r="E13">
+        <v>6.6441889999999999</v>
+      </c>
+      <c r="F13">
+        <v>6.6610610000000001</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1335,24 +1623,27 @@
     </row>
     <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Z17"/>
+  <dimension ref="A1:Z16"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -1364,7 +1655,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1448,14 +1739,23 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A4" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
@@ -1474,13 +1774,24 @@
       <c r="Z4" s="5"/>
     </row>
     <row r="5" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+      <c r="A5">
         <v>50</v>
       </c>
-      <c r="B5" s="5">
-        <v>150</v>
-      </c>
-      <c r="C5" s="6"/>
+      <c r="B5">
+        <v>11.677654</v>
+      </c>
+      <c r="C5">
+        <v>4.498081</v>
+      </c>
+      <c r="D5">
+        <v>0.63612500000000005</v>
+      </c>
+      <c r="E5">
+        <v>10.43085</v>
+      </c>
+      <c r="F5">
+        <v>12.924458</v>
+      </c>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
       <c r="N5" s="5"/>
@@ -1498,13 +1809,24 @@
       <c r="Z5" s="5"/>
     </row>
     <row r="6" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+      <c r="A6">
         <v>100</v>
       </c>
-      <c r="B6" s="5">
-        <v>150</v>
-      </c>
-      <c r="C6" s="6"/>
+      <c r="B6">
+        <v>12.505739</v>
+      </c>
+      <c r="C6">
+        <v>6.1244480000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.61244500000000002</v>
+      </c>
+      <c r="E6">
+        <v>11.305348</v>
+      </c>
+      <c r="F6">
+        <v>13.706130999999999</v>
+      </c>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
       <c r="N6" s="5"/>
@@ -1522,13 +1844,24 @@
       <c r="Z6" s="5"/>
     </row>
     <row r="7" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="A7">
         <v>200</v>
       </c>
-      <c r="B7" s="5">
-        <v>150</v>
-      </c>
-      <c r="C7" s="6"/>
+      <c r="B7">
+        <v>11.204613</v>
+      </c>
+      <c r="C7">
+        <v>5.3408300000000004</v>
+      </c>
+      <c r="D7">
+        <v>0.37765399999999999</v>
+      </c>
+      <c r="E7">
+        <v>10.464411999999999</v>
+      </c>
+      <c r="F7">
+        <v>11.944813999999999</v>
+      </c>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
@@ -1546,13 +1879,24 @@
       <c r="Z7" s="5"/>
     </row>
     <row r="8" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
+      <c r="A8">
         <v>400</v>
       </c>
-      <c r="B8" s="5">
-        <v>150</v>
-      </c>
-      <c r="C8" s="6"/>
+      <c r="B8">
+        <v>11.593541</v>
+      </c>
+      <c r="C8">
+        <v>5.4404750000000002</v>
+      </c>
+      <c r="D8">
+        <v>0.27202399999999999</v>
+      </c>
+      <c r="E8">
+        <v>11.060373999999999</v>
+      </c>
+      <c r="F8">
+        <v>12.126707</v>
+      </c>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
@@ -1570,13 +1914,24 @@
       <c r="Z8" s="5"/>
     </row>
     <row r="9" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
+      <c r="A9">
         <v>800</v>
       </c>
-      <c r="B9" s="5">
-        <v>150</v>
-      </c>
-      <c r="C9" s="6"/>
+      <c r="B9">
+        <v>11.498732</v>
+      </c>
+      <c r="C9">
+        <v>5.5461679999999998</v>
+      </c>
+      <c r="D9">
+        <v>0.19608700000000001</v>
+      </c>
+      <c r="E9">
+        <v>11.114402</v>
+      </c>
+      <c r="F9">
+        <v>11.883062000000001</v>
+      </c>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
@@ -1594,13 +1949,24 @@
       <c r="Z9" s="5"/>
     </row>
     <row r="10" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+      <c r="A10">
         <v>1600</v>
       </c>
-      <c r="B10" s="5">
-        <v>150</v>
-      </c>
-      <c r="C10" s="6"/>
+      <c r="B10">
+        <v>11.728414000000001</v>
+      </c>
+      <c r="C10">
+        <v>5.9381839999999997</v>
+      </c>
+      <c r="D10">
+        <v>0.148455</v>
+      </c>
+      <c r="E10">
+        <v>11.437443</v>
+      </c>
+      <c r="F10">
+        <v>12.019385</v>
+      </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
@@ -1618,13 +1984,24 @@
       <c r="Z10" s="5"/>
     </row>
     <row r="11" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
+      <c r="A11">
         <v>3200</v>
       </c>
-      <c r="B11" s="5">
-        <v>150</v>
-      </c>
-      <c r="C11" s="6"/>
+      <c r="B11">
+        <v>11.49423</v>
+      </c>
+      <c r="C11">
+        <v>5.7691860000000004</v>
+      </c>
+      <c r="D11">
+        <v>0.10198599999999999</v>
+      </c>
+      <c r="E11">
+        <v>11.294338</v>
+      </c>
+      <c r="F11">
+        <v>11.694122</v>
+      </c>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
@@ -1642,13 +2019,24 @@
       <c r="Z11" s="5"/>
     </row>
     <row r="12" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
+      <c r="A12">
         <v>6400</v>
       </c>
-      <c r="B12" s="5">
-        <v>150</v>
-      </c>
-      <c r="C12" s="6"/>
+      <c r="B12">
+        <v>11.632754</v>
+      </c>
+      <c r="C12">
+        <v>5.736891</v>
+      </c>
+      <c r="D12">
+        <v>7.1710999999999997E-2</v>
+      </c>
+      <c r="E12">
+        <v>11.4922</v>
+      </c>
+      <c r="F12">
+        <v>11.773308</v>
+      </c>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
@@ -1666,13 +2054,24 @@
       <c r="Z12" s="5"/>
     </row>
     <row r="13" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+      <c r="A13">
         <v>12800</v>
       </c>
-      <c r="B13" s="5">
-        <v>150</v>
-      </c>
-      <c r="C13" s="6"/>
+      <c r="B13">
+        <v>11.654673000000001</v>
+      </c>
+      <c r="C13">
+        <v>5.7184920000000004</v>
+      </c>
+      <c r="D13">
+        <v>5.0545E-2</v>
+      </c>
+      <c r="E13">
+        <v>11.555605</v>
+      </c>
+      <c r="F13">
+        <v>11.753740000000001</v>
+      </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
@@ -1689,41 +2088,20 @@
       <c r="Y13" s="5"/>
       <c r="Z13" s="5"/>
     </row>
-    <row r="14" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
-        <v>25600</v>
-      </c>
-      <c r="B14" s="5">
-        <v>150</v>
-      </c>
-      <c r="C14" s="6"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
-      <c r="N14" s="5"/>
-      <c r="O14" s="5"/>
-      <c r="P14" s="5"/>
-      <c r="Q14" s="5"/>
-      <c r="R14" s="5"/>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="5"/>
-      <c r="Z14" s="5"/>
+    <row r="15" spans="1:26" ht="14" x14ac:dyDescent="0.15">
+      <c r="A15" s="5" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="14" x14ac:dyDescent="0.15">
-      <c r="A16" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="14" x14ac:dyDescent="0.15">
-      <c r="A17" s="6"/>
+      <c r="A16" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.74791666666666701" right="0.74791666666666701" top="0.98402777777777795" bottom="0.98402777777777795" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1742,7 +2120,7 @@
   <sheetData>
     <row r="1" spans="1:26" ht="14" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -1831,10 +2209,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
